--- a/test_youtube/done/groundtruth/face6_01_mintchyy_ep2.xlsx
+++ b/test_youtube/done/groundtruth/face6_01_mintchyy_ep2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Desktop\done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\done\groundtruth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9621029-1CA5-43F6-ABFF-AB87DA95386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F43C199-3DC6-42C9-B34D-A766460C8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,8 +681,8 @@
   </sheetPr>
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
